--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,18 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -70,337 +70,325 @@
     <t>loves</t>
   </si>
   <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>rice</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>handy</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>fan</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>liked</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>peel</t>
+    <t>every</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -764,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -851,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -883,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -933,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -975,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2692307692307692</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1025,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1033,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2558139534883721</v>
+        <v>0.310077519379845</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1075,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1083,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.202020202020202</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8695652173913043</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1125,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0918918918918919</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8591331269349846</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L9">
-        <v>555</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>555</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1175,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1183,13 +1171,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1201,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,13 +1197,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1223,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7954545454545454</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1253,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1261,13 +1249,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7532467532467533</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="M13">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1275,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1301,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7012987012987013</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L15">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1327,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6712328767123288</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1365,13 +1353,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6677966101694915</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L17">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M17">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1391,13 +1379,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1417,13 +1405,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1443,13 +1431,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6323529411764706</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1461,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1469,13 +1457,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6284109149277689</v>
+        <v>0.637239165329053</v>
       </c>
       <c r="L21">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="M21">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1487,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1495,13 +1483,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1513,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1521,13 +1509,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6228571428571429</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L23">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1539,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1547,13 +1535,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1565,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1573,13 +1561,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.609375</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1591,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1599,13 +1587,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1617,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1625,13 +1613,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1643,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1651,13 +1639,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5918367346938775</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1669,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1677,13 +1665,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5897435897435898</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1695,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1703,13 +1691,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1721,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1729,13 +1717,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1747,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1755,13 +1743,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5538461538461539</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1773,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1781,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5416666666666666</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1799,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1807,13 +1795,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.5625</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1825,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1833,13 +1821,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5299145299145299</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L35">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1851,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1859,13 +1847,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5172413793103449</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1877,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1885,13 +1873,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5151515151515151</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1903,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1911,13 +1899,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.5096153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1929,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1937,13 +1925,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.4910179640718563</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L39">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="M39">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1955,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1963,13 +1951,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.4901960784313725</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1981,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1989,13 +1977,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.4819277108433735</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2007,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2015,13 +2003,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4661654135338346</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L42">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2033,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2041,13 +2029,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.459016393442623</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2059,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2070,10 +2058,10 @@
         <v>0.45</v>
       </c>
       <c r="L44">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2085,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2093,13 +2081,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.425</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2111,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2119,13 +2107,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.4193548387096774</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2137,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2145,13 +2133,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.4146341463414634</v>
+        <v>0.41</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2163,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2171,13 +2159,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4102564102564102</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2189,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2197,13 +2185,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.4074074074074074</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2215,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2223,13 +2211,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.3968253968253968</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2241,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2249,13 +2237,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.3947368421052632</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2267,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2275,13 +2263,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.3915662650602409</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L52">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2293,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2301,7 +2289,7 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.375</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="L53">
         <v>21</v>
@@ -2319,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2353,13 +2341,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3636363636363636</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2371,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2379,13 +2367,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3469387755102041</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2397,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2405,13 +2393,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3357843137254902</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L57">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M57">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2423,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2431,13 +2419,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3289473684210527</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2449,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2457,13 +2445,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3151750972762646</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L59">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2475,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>176</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2483,13 +2471,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.3088235294117647</v>
+        <v>0.3190661478599222</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2501,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2509,13 +2497,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.3082706766917293</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L61">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2527,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2535,13 +2523,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.3063063063063063</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="L62">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2553,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2561,13 +2549,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.2916666666666667</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2579,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2587,13 +2575,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2772277227722773</v>
+        <v>0.3</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2605,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2613,13 +2601,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2753424657534246</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L65">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2631,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>529</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2639,13 +2627,13 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2727272727272727</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2657,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2691,13 +2679,13 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2666666666666667</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2709,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2717,13 +2705,13 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2661870503597122</v>
+        <v>0.2616438356164383</v>
       </c>
       <c r="L69">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="M69">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2735,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>102</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2743,13 +2731,13 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2476190476190476</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L70">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M70">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2761,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2769,13 +2757,13 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2470588235294118</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2787,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2795,25 +2783,25 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2440191387559809</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L72">
+        <v>15</v>
+      </c>
+      <c r="M72">
+        <v>15</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
         <v>51</v>
-      </c>
-      <c r="M72">
-        <v>51</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>158</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2821,13 +2809,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.240043057050592</v>
+        <v>0.2260495156081808</v>
       </c>
       <c r="L73">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M73">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2839,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2847,13 +2835,13 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2293577981651376</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L74">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2865,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2873,13 +2861,13 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2251655629139073</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2891,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>117</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2899,13 +2887,13 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.2235294117647059</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L76">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2917,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2925,13 +2913,13 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.2225705329153605</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L77">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2943,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>248</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2951,13 +2939,13 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.2214765100671141</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L78">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2969,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2977,13 +2965,13 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.2083333333333333</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2995,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>57</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3003,13 +2991,13 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.1948051948051948</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3021,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3029,13 +3017,13 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1904761904761905</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L81">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3047,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3055,13 +3043,13 @@
         <v>95</v>
       </c>
       <c r="K82">
-        <v>0.1847826086956522</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3073,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3081,13 +3069,13 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>0.1807228915662651</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3099,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>68</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3107,13 +3095,13 @@
         <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1769230769230769</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M84">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3125,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3133,13 +3121,13 @@
         <v>98</v>
       </c>
       <c r="K85">
-        <v>0.1711711711711712</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L85">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M85">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3151,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>92</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3159,13 +3147,13 @@
         <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1709401709401709</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3177,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3185,13 +3173,13 @@
         <v>100</v>
       </c>
       <c r="K87">
-        <v>0.1668874172185431</v>
+        <v>0.16</v>
       </c>
       <c r="L87">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3203,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>629</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3211,13 +3199,13 @@
         <v>101</v>
       </c>
       <c r="K88">
-        <v>0.1649616368286445</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="L88">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="M88">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3229,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>653</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3237,7 +3225,7 @@
         <v>102</v>
       </c>
       <c r="K89">
-        <v>0.1592920353982301</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L89">
         <v>18</v>
@@ -3255,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3263,13 +3251,13 @@
         <v>103</v>
       </c>
       <c r="K90">
-        <v>0.1557377049180328</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L90">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M90">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3281,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>103</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3289,25 +3277,25 @@
         <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1272727272727273</v>
+        <v>0.1324324324324324</v>
       </c>
       <c r="L91">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M91">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>144</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3315,13 +3303,13 @@
         <v>105</v>
       </c>
       <c r="K92">
-        <v>0.127147766323024</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L92">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M92">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3333,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>254</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3341,13 +3329,13 @@
         <v>106</v>
       </c>
       <c r="K93">
-        <v>0.1265206812652068</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L93">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M93">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3359,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>359</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3367,13 +3355,13 @@
         <v>107</v>
       </c>
       <c r="K94">
-        <v>0.1182266009852217</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L94">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M94">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3385,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>179</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3393,13 +3381,13 @@
         <v>108</v>
       </c>
       <c r="K95">
-        <v>0.1165644171779141</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3411,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3419,13 +3407,13 @@
         <v>109</v>
       </c>
       <c r="K96">
-        <v>0.1162790697674419</v>
+        <v>0.1113636363636364</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3437,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>114</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3445,25 +3433,25 @@
         <v>110</v>
       </c>
       <c r="K97">
-        <v>0.1158536585365854</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L97">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M97">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3471,13 +3459,13 @@
         <v>111</v>
       </c>
       <c r="K98">
-        <v>0.1136363636363636</v>
+        <v>0.1104294478527607</v>
       </c>
       <c r="L98">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3489,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>390</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3497,13 +3485,13 @@
         <v>112</v>
       </c>
       <c r="K99">
-        <v>0.1132075471698113</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L99">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M99">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3515,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>329</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3523,13 +3511,13 @@
         <v>113</v>
       </c>
       <c r="K100">
-        <v>0.1092436974789916</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L100">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M100">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3541,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3549,13 +3537,13 @@
         <v>114</v>
       </c>
       <c r="K101">
-        <v>0.1037037037037037</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L101">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M101">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3567,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>242</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3575,13 +3563,13 @@
         <v>115</v>
       </c>
       <c r="K102">
-        <v>0.1008771929824561</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L102">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M102">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3593,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3601,13 +3589,13 @@
         <v>116</v>
       </c>
       <c r="K103">
-        <v>0.09615384615384616</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L103">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M103">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3619,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>141</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3627,25 +3615,25 @@
         <v>117</v>
       </c>
       <c r="K104">
-        <v>0.0959409594095941</v>
+        <v>0.08034433285509325</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="M104">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>245</v>
+        <v>641</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3653,13 +3641,13 @@
         <v>118</v>
       </c>
       <c r="K105">
-        <v>0.09069212410501193</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="L105">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M105">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3671,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3679,13 +3667,13 @@
         <v>119</v>
       </c>
       <c r="K106">
-        <v>0.0903954802259887</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="L106">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M106">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3697,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3705,13 +3693,13 @@
         <v>120</v>
       </c>
       <c r="K107">
-        <v>0.08173076923076923</v>
+        <v>0.05597014925373135</v>
       </c>
       <c r="L107">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3723,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>191</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3731,13 +3719,13 @@
         <v>121</v>
       </c>
       <c r="K108">
-        <v>0.06284153005464481</v>
+        <v>0.05191256830601093</v>
       </c>
       <c r="L108">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M108">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3749,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3757,13 +3745,13 @@
         <v>122</v>
       </c>
       <c r="K109">
-        <v>0.06156716417910447</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="L109">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M109">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3775,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>1006</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3783,25 +3771,25 @@
         <v>123</v>
       </c>
       <c r="K110">
-        <v>0.06048387096774194</v>
+        <v>0.03838771593090211</v>
       </c>
       <c r="L110">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M110">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>233</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3809,13 +3797,13 @@
         <v>124</v>
       </c>
       <c r="K111">
-        <v>0.05583756345177665</v>
+        <v>0.03690036900369004</v>
       </c>
       <c r="L111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3827,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>372</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3835,129 +3823,25 @@
         <v>125</v>
       </c>
       <c r="K112">
-        <v>0.05444126074498568</v>
+        <v>0.03200692041522491</v>
       </c>
       <c r="L112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M112">
         <v>38</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="113" spans="10:17">
-      <c r="J113" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K113">
-        <v>0.04797047970479705</v>
-      </c>
-      <c r="L113">
-        <v>26</v>
-      </c>
-      <c r="M113">
-        <v>26</v>
-      </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K114">
-        <v>0.04106280193236715</v>
-      </c>
-      <c r="L114">
-        <v>17</v>
-      </c>
-      <c r="M114">
-        <v>17</v>
-      </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K115">
-        <v>0.03071017274472169</v>
-      </c>
-      <c r="L115">
-        <v>16</v>
-      </c>
-      <c r="M115">
-        <v>17</v>
-      </c>
-      <c r="N115">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O115">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K116">
-        <v>0.02335640138408305</v>
-      </c>
-      <c r="L116">
-        <v>27</v>
-      </c>
-      <c r="M116">
-        <v>28</v>
-      </c>
-      <c r="N116">
-        <v>0.96</v>
-      </c>
-      <c r="O116">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>1129</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
